--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18720" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Bachelorarbeit</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>mdrs transatkion</t>
+  </si>
+  <si>
+    <t>key figure composites</t>
+  </si>
+  <si>
+    <t>mdav hängt dahinter</t>
+  </si>
+  <si>
+    <t>workcenter zuordnung nötig!</t>
+  </si>
+  <si>
+    <t>bo identity</t>
   </si>
 </sst>
 </file>
@@ -206,7 +221,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
@@ -226,25 +241,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -262,7 +265,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
   </dxfs>
@@ -562,33 +567,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD50"/>
+  <dimension ref="A1:XFC313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="149.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="149.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25 16384:16384" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
       <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -605,24 +610,24 @@
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-    </row>
-    <row r="2" spans="1:25 16384:16384" s="8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:24 16383:16383" s="8" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <f>SUM(E3,E4,E10,E25,E30,E37,E43,E49)</f>
+        <v>59</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(F3,F4,F10,F25,F30,F37,F43,F49)</f>
-        <v>59</v>
-      </c>
-      <c r="G2" s="8">
-        <f>SUM(G3,G4,G10,G25,G30,G37,G43,G49)</f>
-        <v>5</v>
-      </c>
-      <c r="H2" s="9">
-        <f>G2/F2</f>
-        <v>8.4745762711864403E-2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G2" s="9">
+        <f>F2/E2</f>
+        <v>0.11864406779661017</v>
+      </c>
+      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -639,22 +644,22 @@
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-    </row>
-    <row r="3" spans="1:25 16384:16384" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:24 16383:16383" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <f>G3/F3</f>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3/E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -671,25 +676,24 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-    </row>
-    <row r="4" spans="1:25 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:24 16383:16383" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <f>_xlfn.CEILING.PRECISE(SUM(E5:E9))</f>
+        <v>5</v>
       </c>
       <c r="F4" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(F5:F9))</f>
         <v>5</v>
       </c>
-      <c r="G4" s="2">
-        <f>_xlfn.CEILING.PRECISE(SUM(G5:G9))</f>
-        <v>3</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:H50" si="0">G4/F4</f>
-        <v>0.6</v>
-      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G49" si="0">F4/E4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -706,27 +710,26 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="XFD4" s="4">
-        <f>SUM(H4)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="C5" t="s">
+      <c r="XFC4" s="4">
+        <f>SUM(G4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
       <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -743,23 +746,22 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-    </row>
-    <row r="6" spans="1:25 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="C6" t="s">
+    </row>
+    <row r="6" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
       </c>
       <c r="F6">
         <v>1.5</v>
       </c>
-      <c r="G6">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -776,23 +778,22 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-    </row>
-    <row r="7" spans="1:25 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="C7" t="s">
+    </row>
+    <row r="7" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
       </c>
       <c r="F7">
         <v>1.5</v>
       </c>
-      <c r="G7">
-        <v>1.5</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -809,23 +810,22 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-    </row>
-    <row r="8" spans="1:25 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="C8" t="s">
+    </row>
+    <row r="8" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -842,23 +842,22 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-    </row>
-    <row r="9" spans="1:25 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="C9" t="s">
+    </row>
+    <row r="9" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
       <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -875,25 +874,24 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-    </row>
-    <row r="10" spans="1:25 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="10" spans="1:24 16383:16383" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <f>_xlfn.CEILING.PRECISE(SUM(E11,E12,E19,E24))</f>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(F11,F12,F19,F24))</f>
-        <v>16</v>
-      </c>
-      <c r="G10" s="2">
-        <f>_xlfn.CEILING.PRECISE(SUM(G11,G12,G19,G24))</f>
         <v>2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -910,27 +908,26 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="XFD10" s="4">
-        <f>SUM(H10)</f>
+      <c r="XFC10" s="4">
+        <f>SUM(G10)</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:25 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="C11" t="s">
+    <row r="11" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
       <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>G11/F11</f>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <f>F11/E11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -947,25 +944,24 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-    </row>
-    <row r="12" spans="1:25 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="12" spans="1:24 16383:16383" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <f>SUM(E13,E14,E18)</f>
+        <v>8.5</v>
       </c>
       <c r="F12" s="2">
         <f>SUM(F13,F14,F18)</f>
-        <v>8.5</v>
-      </c>
-      <c r="G12" s="2">
-        <f>SUM(G13,G14,G18)</f>
         <v>1.2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>0.14117647058823529</v>
       </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -982,27 +978,26 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="XFD12" s="4">
-        <f>SUM(H12)</f>
+      <c r="XFC12" s="4">
+        <f>SUM(G12)</f>
         <v>0.14117647058823529</v>
       </c>
     </row>
-    <row r="13" spans="1:25 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="D13" t="s">
+    <row r="13" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
       <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1019,25 +1014,24 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-    </row>
-    <row r="14" spans="1:25 16384:16384" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="14" spans="1:24 16383:16383" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="E14" s="5">
+        <f>SUM(E15:E17)</f>
+        <v>4.5</v>
       </c>
       <c r="F14" s="5">
         <f>SUM(F15:F17)</f>
-        <v>4.5</v>
-      </c>
-      <c r="G14" s="5">
-        <f>SUM(G15:G17)</f>
         <v>1.2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>0.26666666666666666</v>
       </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1054,23 +1048,22 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-    </row>
-    <row r="15" spans="1:25 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="E15" t="s">
+    </row>
+    <row r="15" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
+      <c r="E15">
+        <v>1.5</v>
+      </c>
       <c r="F15">
-        <v>1.5</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1087,23 +1080,22 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-    </row>
-    <row r="16" spans="1:25 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="E16" t="s">
+    </row>
+    <row r="16" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
+      <c r="E16">
+        <v>1.5</v>
+      </c>
       <c r="F16">
-        <v>1.5</v>
-      </c>
-      <c r="G16">
         <v>1.2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
       </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -1120,23 +1112,22 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="E17" t="s">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
+      <c r="E17">
+        <v>1.5</v>
+      </c>
       <c r="F17">
-        <v>1.5</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1153,23 +1144,22 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="D18" t="s">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
       <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -1186,25 +1176,24 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-    </row>
-    <row r="19" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="C19" s="5" t="s">
+    </row>
+    <row r="19" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="E19" s="5">
+        <f>SUM(E20:E23)</f>
+        <v>6</v>
       </c>
       <c r="F19" s="5">
         <f>SUM(F20:F23)</f>
-        <v>6</v>
-      </c>
-      <c r="G19" s="5">
-        <f>SUM(G20:G23)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1221,23 +1210,22 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="D20" t="s">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
+      <c r="E20">
+        <v>1.5</v>
+      </c>
       <c r="F20">
-        <v>1.5</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -1254,23 +1242,22 @@
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="D21" t="s">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>10</v>
       </c>
+      <c r="E21">
+        <v>1.5</v>
+      </c>
       <c r="F21">
-        <v>1.5</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -1287,23 +1274,22 @@
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="D22" t="s">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
       <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -1320,23 +1306,22 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="D23" t="s">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>18</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1353,23 +1338,22 @@
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="C24" t="s">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
       <c r="F24">
-        <v>0.5</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -1386,25 +1370,24 @@
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-    </row>
-    <row r="25" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="5" t="s">
+    </row>
+    <row r="25" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="E25" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(E26:E29))</f>
+        <v>6</v>
       </c>
       <c r="F25" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F26:F29))</f>
-        <v>6</v>
-      </c>
-      <c r="G25" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(G26:G29))</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -1421,23 +1404,22 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="C26" t="s">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
       <c r="F26">
-        <v>0.5</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -1454,23 +1436,22 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="C27" t="s">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>21</v>
       </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
       <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1487,23 +1468,22 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="C28" t="s">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>22</v>
       </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
       <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -1520,23 +1500,22 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="C29" t="s">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>33</v>
       </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
       <c r="F29">
-        <v>0.5</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1553,25 +1532,24 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-    </row>
-    <row r="30" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="5" t="s">
+    </row>
+    <row r="30" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="E30" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(E31:E36))</f>
+        <v>6</v>
       </c>
       <c r="F30" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F31:F36))</f>
-        <v>6</v>
-      </c>
-      <c r="G30" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(G31:G36))</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -1588,23 +1566,22 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="C31" t="s">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
       <c r="F31">
-        <v>0.5</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -1621,23 +1598,22 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="C32" t="s">
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>24</v>
       </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -1654,23 +1630,22 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="C33" t="s">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>34</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
       <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -1687,23 +1662,22 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="C34" t="s">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>35</v>
       </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -1720,23 +1694,22 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="C35" t="s">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>36</v>
       </c>
+      <c r="E35">
+        <v>1.5</v>
+      </c>
       <c r="F35">
-        <v>1.5</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -1753,23 +1726,22 @@
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="C36" t="s">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>33</v>
       </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
       <c r="F36">
-        <v>0.5</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -1786,25 +1758,24 @@
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-    </row>
-    <row r="37" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="5" t="s">
+    </row>
+    <row r="37" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="E37" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(E38:E42))</f>
+        <v>16</v>
       </c>
       <c r="F37" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F38:F42))</f>
-        <v>16</v>
-      </c>
-      <c r="G37" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(G38:G42))</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -1821,23 +1792,22 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="C38" t="s">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>32</v>
       </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
       <c r="F38">
-        <v>0.5</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -1854,23 +1824,22 @@
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="C39" t="s">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>26</v>
       </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
       <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -1887,23 +1856,22 @@
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="C40" t="s">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>27</v>
       </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
       <c r="F40">
-        <v>5</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -1920,23 +1888,22 @@
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="C41" t="s">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>28</v>
       </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
       <c r="F41">
-        <v>5</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -1953,23 +1920,22 @@
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="C42" t="s">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>33</v>
       </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
       <c r="F42">
-        <v>0.5</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -1986,25 +1952,24 @@
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-    </row>
-    <row r="43" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="5" t="s">
+    </row>
+    <row r="43" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="E43" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(E44:E48))</f>
+        <v>6</v>
       </c>
       <c r="F43" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F44:F48))</f>
-        <v>6</v>
-      </c>
-      <c r="G43" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(G44:G48))</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -2021,23 +1986,22 @@
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="C44" t="s">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>32</v>
       </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
       <c r="F44">
-        <v>0.5</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -2054,23 +2018,22 @@
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="C45" t="s">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>37</v>
       </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
       <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -2087,23 +2050,22 @@
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="C46" t="s">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>30</v>
       </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
       <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -2120,23 +2082,22 @@
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="C47" t="s">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>31</v>
       </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
       <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -2153,23 +2114,22 @@
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="C48" t="s">
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>33</v>
       </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
       <c r="F48">
-        <v>0.5</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -2186,26 +2146,25 @@
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="11" t="s">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="E49" s="11">
+        <v>2</v>
+      </c>
       <c r="F49" s="11">
-        <v>2</v>
-      </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
-      <c r="H49" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G49" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -2222,9 +2181,9 @@
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -2241,10 +2200,50 @@
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>0.99</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+      <formula>0.8</formula>
+      <formula>0.99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+      <formula>0.5</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+      <formula>0</formula>
+      <formula>0.5</formula>
+    </cfRule>
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="percent" val="0"/>
@@ -2256,22 +2255,6 @@
           <x14:id>{0C923861-5D52-4FB2-BDE4-0A9945E3D32F}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
-      <formula>0</formula>
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>0.5</formula>
-      <formula>0.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
-      <formula>0.8</formula>
-      <formula>0.99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>0.99</formula>
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2294,7 +2277,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -570,7 +570,7 @@
   <dimension ref="A1:XFC313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,11 +819,11 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -570,7 +570,7 @@
   <dimension ref="A1:XFC313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,15 +617,15 @@
       </c>
       <c r="E2" s="8">
         <f>SUM(E3,E4,E10,E25,E30,E37,E43,E49)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(F3,F4,F10,F25,F30,F37,F43,F49)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="9">
         <f>F2/E2</f>
-        <v>0.11864406779661017</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="E4" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(E5:E9))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(F5:F9))</f>
@@ -691,7 +691,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4:G49" si="0">F4/E4</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -712,7 +712,7 @@
       <c r="X4" s="7"/>
       <c r="XFC4" s="4">
         <f>SUM(G4)</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
@@ -816,14 +816,14 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="F8">
         <v>1.6</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -885,11 +885,11 @@
       </c>
       <c r="F10" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(F11,F12,F19,F24))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -910,7 +910,7 @@
       <c r="X10" s="7"/>
       <c r="XFC10" s="4">
         <f>SUM(G10)</f>
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="11" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
@@ -955,11 +955,11 @@
       </c>
       <c r="F12" s="2">
         <f>SUM(F13,F14,F18)</f>
-        <v>1.2</v>
+        <v>2.21</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>0.14117647058823529</v>
+        <v>0.26</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -980,7 +980,7 @@
       <c r="X12" s="7"/>
       <c r="XFC12" s="4">
         <f>SUM(G12)</f>
-        <v>0.14117647058823529</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="13" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
@@ -1025,11 +1025,11 @@
       </c>
       <c r="F14" s="5">
         <f>SUM(F15:F17)</f>
-        <v>1.2</v>
+        <v>2.21</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.49111111111111111</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1057,11 +1057,11 @@
         <v>1.5</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.67333333333333334</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -570,7 +570,7 @@
   <dimension ref="A1:XFC313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,11 +621,11 @@
       </c>
       <c r="F2" s="8">
         <f>SUM(F3,F4,F10,F25,F30,F37,F43,F49)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="9">
         <f>F2/E2</f>
-        <v>0.13333333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -885,11 +885,11 @@
       </c>
       <c r="F10" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(F11,F12,F19,F24))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -910,7 +910,7 @@
       <c r="X10" s="7"/>
       <c r="XFC10" s="4">
         <f>SUM(G10)</f>
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
@@ -955,11 +955,11 @@
       </c>
       <c r="F12" s="2">
         <f>SUM(F13,F14,F18)</f>
-        <v>2.21</v>
+        <v>3.41</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.4011764705882353</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -980,7 +980,7 @@
       <c r="X12" s="7"/>
       <c r="XFC12" s="4">
         <f>SUM(G12)</f>
-        <v>0.26</v>
+        <v>0.4011764705882353</v>
       </c>
     </row>
     <row r="13" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
@@ -1025,11 +1025,11 @@
       </c>
       <c r="F14" s="5">
         <f>SUM(F15:F17)</f>
-        <v>2.21</v>
+        <v>3.41</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0.49111111111111111</v>
+        <v>0.75777777777777777</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1121,11 +1121,11 @@
         <v>1.5</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -570,7 +570,7 @@
   <dimension ref="A1:XFC313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,9 +721,6 @@
       </c>
       <c r="E5">
         <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -570,7 +570,7 @@
   <dimension ref="A1:XFC313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,15 +617,15 @@
       </c>
       <c r="E2" s="8">
         <f>SUM(E3,E4,E10,E25,E30,E37,E43,E49)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(F3,F4,F10,F25,F30,F37,F43,F49)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="9">
         <f>F2/E2</f>
-        <v>0.15</v>
+        <v>0.16393442622950818</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -683,15 +683,15 @@
       </c>
       <c r="E4" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(E5:E9))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(F5:F9))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4:G49" si="0">F4/E4</f>
-        <v>0.83333333333333337</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -712,7 +712,7 @@
       <c r="X4" s="7"/>
       <c r="XFC4" s="4">
         <f>SUM(G4)</f>
-        <v>0.83333333333333337</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="5" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
@@ -813,10 +813,10 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>1.6</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F8">
-        <v>1.6</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -221,7 +221,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
@@ -241,6 +241,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -570,7 +571,7 @@
   <dimension ref="A1:XFC313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,11 +622,11 @@
       </c>
       <c r="F2" s="8">
         <f>SUM(F3,F4,F10,F25,F30,F37,F43,F49)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="9">
         <f>F2/E2</f>
-        <v>0.16393442622950818</v>
+        <v>0.19672131147540983</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -685,7 +686,7 @@
         <f>_xlfn.CEILING.PRECISE(SUM(E5:E9))</f>
         <v>7</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="13">
         <f>_xlfn.CEILING.PRECISE(SUM(F5:F9))</f>
         <v>6</v>
       </c>
@@ -813,10 +814,10 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>2.0099999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F8">
-        <v>2.0099999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -882,11 +883,11 @@
       </c>
       <c r="F10" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(F11,F12,F19,F24))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -907,7 +908,7 @@
       <c r="X10" s="7"/>
       <c r="XFC10" s="4">
         <f>SUM(G10)</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="11" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
@@ -952,11 +953,11 @@
       </c>
       <c r="F12" s="2">
         <f>SUM(F13,F14,F18)</f>
-        <v>3.41</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>0.4011764705882353</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -977,7 +978,7 @@
       <c r="X12" s="7"/>
       <c r="XFC12" s="4">
         <f>SUM(G12)</f>
-        <v>0.4011764705882353</v>
+        <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="13" spans="1:24 16383:16383" x14ac:dyDescent="0.25">
@@ -988,11 +989,11 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1022,11 +1023,11 @@
       </c>
       <c r="F14" s="5">
         <f>SUM(F15:F17)</f>
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0.75777777777777777</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1054,11 +1055,11 @@
         <v>1.5</v>
       </c>
       <c r="F15">
-        <v>1.01</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>0.67333333333333334</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1150,11 +1151,11 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2256,6 +2257,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E4" unlockedFormula="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:XFC313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -27,9 +27,6 @@
     <t>Einleitung</t>
   </si>
   <si>
-    <t>Grundlagen</t>
-  </si>
-  <si>
     <t>Liquidität</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Vergleich</t>
+  </si>
+  <si>
+    <t>Liquidität und Liquidiätsrisiko</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,8 +581,8 @@
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="149.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="149.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:99 16383:16383" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -603,11 +603,11 @@
       </c>
       <c r="F2" s="6">
         <f>SUM(F3,F4,F10,F25,F31,F38,F44,F50)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.2</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -719,7 +719,7 @@
     </row>
     <row r="4" spans="1:99 16383:16383" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(E5:E9))</f>
@@ -832,7 +832,7 @@
     </row>
     <row r="5" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="6" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1.5</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="7" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1.5</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="8" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="9" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="10" spans="1:99 16383:16383" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(E11,E12,E19,E24))</f>
@@ -912,11 +912,11 @@
       </c>
       <c r="F10" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(F11,F12,F19,F24))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -1012,12 +1012,12 @@
       <c r="CU10"/>
       <c r="XFC10" s="4">
         <f>SUM(G10)</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0.5</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="12" spans="1:99 16383:16383" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
         <f>SUM(E13,E14,E18)</f>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="13" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="14" spans="1:99 16383:16383" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="5">
         <f>SUM(E15:E17)</f>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="15" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>1.5</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="16" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>1.5</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="17" spans="1:99" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>1.5</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="18" spans="1:99" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="19" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(E20:E23)</f>
@@ -1337,11 +1337,11 @@
       </c>
       <c r="F19" s="5">
         <f>SUM(F20:F23)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="20" spans="1:99" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>1.5</v>
@@ -1453,22 +1453,22 @@
     </row>
     <row r="21" spans="1:99" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>1.5</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:99" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="23" spans="1:99" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="24" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="25" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E26:E30))</f>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="26" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>0.5</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="27" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="28" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="29" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="30" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0.5</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="31" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E32:E37))</f>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="32" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>0.5</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="33" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="34" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="35" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="36" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>1.5</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="37" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>0.5</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="38" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E39:E43))</f>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="39" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39">
         <v>0.5</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="40" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="41" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="42" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="43" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0.5</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="44" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E45:E49))</f>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="45" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>0.5</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="46" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="47" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="48" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>0.5</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -2275,27 +2275,27 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -63,9 +63,6 @@
     <t>Xcelsius</t>
   </si>
   <si>
-    <t>Grundprinzip</t>
-  </si>
-  <si>
     <t>Erweiterungsmöglichkeiten</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Liquidität und Liquidiätsrisiko</t>
+  </si>
+  <si>
+    <t>Bedienungskonzept</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:99 16383:16383" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -603,11 +603,11 @@
       </c>
       <c r="F2" s="6">
         <f>SUM(F3,F4,F10,F25,F31,F38,F44,F50)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.23333333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -719,7 +719,7 @@
     </row>
     <row r="4" spans="1:99 16383:16383" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(E5:E9))</f>
@@ -832,7 +832,7 @@
     </row>
     <row r="5" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="9" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -912,11 +912,11 @@
       </c>
       <c r="F10" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(F11,F12,F19,F24))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -1012,12 +1012,12 @@
       <c r="CU10"/>
       <c r="XFC10" s="4">
         <f>SUM(G10)</f>
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="11" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0.5</v>
@@ -1337,11 +1337,11 @@
       </c>
       <c r="F19" s="5">
         <f>SUM(F20:F23)</f>
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1438,32 +1438,32 @@
     </row>
     <row r="20" spans="1:99" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>1.5</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:99" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>1.5</v>
       </c>
       <c r="F21">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.73333333333333339</v>
       </c>
     </row>
     <row r="22" spans="1:99" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
     </row>
     <row r="23" spans="1:99" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="24" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="25" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E26:E30))</f>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="26" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0.5</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="27" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="28" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="29" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="30" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0.5</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="31" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E32:E37))</f>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="32" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>0.5</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="33" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="34" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="35" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="36" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>1.5</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="37" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>0.5</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="38" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E39:E43))</f>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="39" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>0.5</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="40" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="41" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="42" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="43" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43">
         <v>0.5</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="44" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E45:E49))</f>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="45" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45">
         <v>0.5</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="46" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="47" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="48" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49">
         <v>0.5</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -2275,27 +2275,27 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:XFC314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,11 +603,11 @@
       </c>
       <c r="F2" s="6">
         <f>SUM(F3,F4,F10,F25,F31,F38,F44,F50)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.25</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -912,11 +912,11 @@
       </c>
       <c r="F10" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(F11,F12,F19,F24))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0.5625</v>
+        <v>0.6875</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -1012,7 +1012,7 @@
       <c r="CU10"/>
       <c r="XFC10" s="4">
         <f>SUM(G10)</f>
-        <v>0.5625</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="11" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
@@ -1337,11 +1337,11 @@
       </c>
       <c r="F19" s="5">
         <f>SUM(F20:F23)</f>
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1459,11 +1459,11 @@
         <v>1.5</v>
       </c>
       <c r="F21">
-        <v>1.1000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>0.73333333333333339</v>
+        <v>1.4666666666666668</v>
       </c>
     </row>
     <row r="22" spans="1:99" x14ac:dyDescent="0.25">
@@ -1489,11 +1489,11 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:99" x14ac:dyDescent="0.25">

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -69,9 +69,6 @@
     <t>Zusammenfassung</t>
   </si>
   <si>
-    <t>Anforderung</t>
-  </si>
-  <si>
     <t>Umsetzungsmöglichkeiten</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Bedienungskonzept</t>
+  </si>
+  <si>
+    <t>Spezifikation</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:99 16383:16383" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -719,7 +719,7 @@
     </row>
     <row r="4" spans="1:99 16383:16383" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(E5:E9))</f>
@@ -832,10 +832,13 @@
     </row>
     <row r="5" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
@@ -889,7 +892,7 @@
     </row>
     <row r="9" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -1017,7 +1020,7 @@
     </row>
     <row r="11" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0.5</v>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="21" spans="1:99" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>1.5</v>
@@ -1498,7 +1501,7 @@
     </row>
     <row r="24" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -1513,7 +1516,7 @@
     </row>
     <row r="25" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E25" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E26:E30))</f>
@@ -1622,7 +1625,7 @@
     </row>
     <row r="26" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0.5</v>
@@ -1637,15 +1640,22 @@
     </row>
     <row r="27" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1660,7 +1670,7 @@
     </row>
     <row r="29" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1675,7 +1685,7 @@
     </row>
     <row r="30" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0.5</v>
@@ -1690,7 +1700,7 @@
     </row>
     <row r="31" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E32:E37))</f>
@@ -1799,7 +1809,7 @@
     </row>
     <row r="32" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0.5</v>
@@ -1814,7 +1824,7 @@
     </row>
     <row r="33" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1829,7 +1839,7 @@
     </row>
     <row r="34" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1844,7 +1854,7 @@
     </row>
     <row r="35" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1859,7 +1869,7 @@
     </row>
     <row r="36" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>1.5</v>
@@ -1874,7 +1884,7 @@
     </row>
     <row r="37" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37">
         <v>0.5</v>
@@ -1889,7 +1899,7 @@
     </row>
     <row r="38" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E39:E43))</f>
@@ -1998,7 +2008,7 @@
     </row>
     <row r="39" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0.5</v>
@@ -2013,7 +2023,7 @@
     </row>
     <row r="40" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2028,7 +2038,7 @@
     </row>
     <row r="41" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -2043,7 +2053,7 @@
     </row>
     <row r="42" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -2058,7 +2068,7 @@
     </row>
     <row r="43" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43">
         <v>0.5</v>
@@ -2073,7 +2083,7 @@
     </row>
     <row r="44" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E45:E49))</f>
@@ -2182,7 +2192,7 @@
     </row>
     <row r="45" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>0.5</v>
@@ -2197,7 +2207,7 @@
     </row>
     <row r="46" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2212,7 +2222,7 @@
     </row>
     <row r="47" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2227,7 +2237,7 @@
     </row>
     <row r="48" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2242,7 +2252,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49">
         <v>0.5</v>
@@ -2275,27 +2285,27 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,15 +599,15 @@
       </c>
       <c r="E2" s="6">
         <f>SUM(E3,E4,E10,E25,E31,E38,E44,E50)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6">
         <f>SUM(F3,F4,F10,F25,F31,F38,F44,F50)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.28333333333333333</v>
+        <v>0.30508474576271188</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -911,15 +911,15 @@
       </c>
       <c r="E10" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(E11,E12,E19,E24))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(F11,F12,F19,F24))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <v>0.8</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
@@ -1015,7 +1015,7 @@
       <c r="CU10"/>
       <c r="XFC10" s="4">
         <f>SUM(G10)</f>
-        <v>0.6875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
@@ -1336,15 +1336,15 @@
       </c>
       <c r="E19" s="5">
         <f>SUM(E20:E23)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="5">
         <f>SUM(F20:F23)</f>
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>0.78333333333333333</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1474,14 +1474,14 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:99" x14ac:dyDescent="0.25">

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,11 +603,11 @@
       </c>
       <c r="F2" s="6">
         <f>SUM(F3,F4,F10,F25,F31,F38,F44,F50)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.30508474576271188</v>
+        <v>0.33898305084745761</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1524,11 +1524,11 @@
       </c>
       <c r="F25" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F26:F30))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -1646,11 +1646,11 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:99" x14ac:dyDescent="0.25">

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,11 +603,11 @@
       </c>
       <c r="F2" s="6">
         <f>SUM(F3,F4,F10,F25,F31,F38,F44,F50)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.33898305084745761</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1524,11 +1524,11 @@
       </c>
       <c r="F25" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F26:F30))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -1661,11 +1661,11 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:99" x14ac:dyDescent="0.25">

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:XFC314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,11 +603,11 @@
       </c>
       <c r="F2" s="6">
         <f>SUM(F3,F4,F10,F25,F31,F38,F44,F50)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.3559322033898305</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1524,11 +1524,11 @@
       </c>
       <c r="F25" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F26:F30))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -1676,11 +1676,11 @@
         <v>3</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:99" x14ac:dyDescent="0.25">

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18720" windowHeight="12450"/>
+    <workbookView xWindow="480" yWindow="1815" windowWidth="18720" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Bachelorarbeit</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Spezifikation</t>
+  </si>
+  <si>
+    <t>Anwendungsfälle</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC314"/>
+  <dimension ref="A1:XFC315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="6">
-        <f>SUM(E3,E4,E10,E25,E31,E38,E44,E50)</f>
-        <v>59</v>
+        <f>SUM(E3,E4,E10,E25,E32,E39,E45,E51)</f>
+        <v>60</v>
       </c>
       <c r="F2" s="6">
-        <f>SUM(F3,F4,F10,F25,F31,F38,F44,F50)</f>
-        <v>22</v>
+        <f>SUM(F3,F4,F10,F25,F32,F39,F45,F51)</f>
+        <v>24</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.3728813559322034</v>
+        <v>0.4</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -730,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G50" si="0">F4/E4</f>
+        <f t="shared" ref="G4:G51" si="0">F4/E4</f>
         <v>1</v>
       </c>
       <c r="H4"/>
@@ -1519,16 +1522,16 @@
         <v>42</v>
       </c>
       <c r="E25" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(E26:E30))</f>
+        <f>_xlfn.CEILING.PRECISE(SUM(E26:E31))</f>
+        <v>7</v>
+      </c>
+      <c r="F25" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(F26:F31))</f>
         <v>6</v>
       </c>
-      <c r="F25" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(F26:F30))</f>
-        <v>4</v>
-      </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -1673,161 +1676,161 @@
         <v>36</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>0.3666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1.8</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>0.5</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(E32:E37))</f>
+      <c r="E32" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(E33:E38))</f>
         <v>6</v>
       </c>
-      <c r="F31" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(F32:F37))</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
-      <c r="AR31"/>
-      <c r="AS31"/>
-      <c r="AT31"/>
-      <c r="AU31"/>
-      <c r="AV31"/>
-      <c r="AW31"/>
-      <c r="AX31"/>
-      <c r="AY31"/>
-      <c r="AZ31"/>
-      <c r="BA31"/>
-      <c r="BB31"/>
-      <c r="BC31"/>
-      <c r="BD31"/>
-      <c r="BE31"/>
-      <c r="BF31"/>
-      <c r="BG31"/>
-      <c r="BH31"/>
-      <c r="BI31"/>
-      <c r="BJ31"/>
-      <c r="BK31"/>
-      <c r="BL31"/>
-      <c r="BM31"/>
-      <c r="BN31"/>
-      <c r="BO31"/>
-      <c r="BP31"/>
-      <c r="BQ31"/>
-      <c r="BR31"/>
-      <c r="BS31"/>
-      <c r="BT31"/>
-      <c r="BU31"/>
-      <c r="BV31"/>
-      <c r="BW31"/>
-      <c r="BX31"/>
-      <c r="BY31"/>
-      <c r="BZ31"/>
-      <c r="CA31"/>
-      <c r="CB31"/>
-      <c r="CC31"/>
-      <c r="CD31"/>
-      <c r="CE31"/>
-      <c r="CF31"/>
-      <c r="CG31"/>
-      <c r="CH31"/>
-      <c r="CI31"/>
-      <c r="CJ31"/>
-      <c r="CK31"/>
-      <c r="CL31"/>
-      <c r="CM31"/>
-      <c r="CN31"/>
-      <c r="CO31"/>
-      <c r="CP31"/>
-      <c r="CQ31"/>
-      <c r="CR31"/>
-      <c r="CS31"/>
-      <c r="CT31"/>
-      <c r="CU31"/>
-    </row>
-    <row r="32" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32">
-        <v>0.5</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F32" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(F33:F38))</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+      <c r="AW32"/>
+      <c r="AX32"/>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="BA32"/>
+      <c r="BB32"/>
+      <c r="BC32"/>
+      <c r="BD32"/>
+      <c r="BE32"/>
+      <c r="BF32"/>
+      <c r="BG32"/>
+      <c r="BH32"/>
+      <c r="BI32"/>
+      <c r="BJ32"/>
+      <c r="BK32"/>
+      <c r="BL32"/>
+      <c r="BM32"/>
+      <c r="BN32"/>
+      <c r="BO32"/>
+      <c r="BP32"/>
+      <c r="BQ32"/>
+      <c r="BR32"/>
+      <c r="BS32"/>
+      <c r="BT32"/>
+      <c r="BU32"/>
+      <c r="BV32"/>
+      <c r="BW32"/>
+      <c r="BX32"/>
+      <c r="BY32"/>
+      <c r="BZ32"/>
+      <c r="CA32"/>
+      <c r="CB32"/>
+      <c r="CC32"/>
+      <c r="CD32"/>
+      <c r="CE32"/>
+      <c r="CF32"/>
+      <c r="CG32"/>
+      <c r="CH32"/>
+      <c r="CI32"/>
+      <c r="CJ32"/>
+      <c r="CK32"/>
+      <c r="CL32"/>
+      <c r="CM32"/>
+      <c r="CN32"/>
+      <c r="CO32"/>
+      <c r="CP32"/>
+      <c r="CQ32"/>
+      <c r="CR32"/>
+      <c r="CS32"/>
+      <c r="CT32"/>
+      <c r="CU32"/>
     </row>
     <row r="33" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1839,7 +1842,7 @@
     </row>
     <row r="34" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1869,10 +1872,10 @@
     </row>
     <row r="36" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E36">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1884,149 +1887,149 @@
     </row>
     <row r="37" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37">
+        <v>1.5</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>0.5</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(E39:E43))</f>
+      <c r="E39" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(E40:E44))</f>
         <v>16</v>
       </c>
-      <c r="F38" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(F39:F43))</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
-      <c r="AE38"/>
-      <c r="AF38"/>
-      <c r="AG38"/>
-      <c r="AH38"/>
-      <c r="AI38"/>
-      <c r="AJ38"/>
-      <c r="AK38"/>
-      <c r="AL38"/>
-      <c r="AM38"/>
-      <c r="AN38"/>
-      <c r="AO38"/>
-      <c r="AP38"/>
-      <c r="AQ38"/>
-      <c r="AR38"/>
-      <c r="AS38"/>
-      <c r="AT38"/>
-      <c r="AU38"/>
-      <c r="AV38"/>
-      <c r="AW38"/>
-      <c r="AX38"/>
-      <c r="AY38"/>
-      <c r="AZ38"/>
-      <c r="BA38"/>
-      <c r="BB38"/>
-      <c r="BC38"/>
-      <c r="BD38"/>
-      <c r="BE38"/>
-      <c r="BF38"/>
-      <c r="BG38"/>
-      <c r="BH38"/>
-      <c r="BI38"/>
-      <c r="BJ38"/>
-      <c r="BK38"/>
-      <c r="BL38"/>
-      <c r="BM38"/>
-      <c r="BN38"/>
-      <c r="BO38"/>
-      <c r="BP38"/>
-      <c r="BQ38"/>
-      <c r="BR38"/>
-      <c r="BS38"/>
-      <c r="BT38"/>
-      <c r="BU38"/>
-      <c r="BV38"/>
-      <c r="BW38"/>
-      <c r="BX38"/>
-      <c r="BY38"/>
-      <c r="BZ38"/>
-      <c r="CA38"/>
-      <c r="CB38"/>
-      <c r="CC38"/>
-      <c r="CD38"/>
-      <c r="CE38"/>
-      <c r="CF38"/>
-      <c r="CG38"/>
-      <c r="CH38"/>
-      <c r="CI38"/>
-      <c r="CJ38"/>
-      <c r="CK38"/>
-      <c r="CL38"/>
-      <c r="CM38"/>
-      <c r="CN38"/>
-      <c r="CO38"/>
-      <c r="CP38"/>
-      <c r="CQ38"/>
-      <c r="CR38"/>
-      <c r="CS38"/>
-      <c r="CT38"/>
-      <c r="CU38"/>
-    </row>
-    <row r="39" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39">
-        <v>0.5</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F39" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(F40:F44))</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AR39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+      <c r="AW39"/>
+      <c r="AX39"/>
+      <c r="AY39"/>
+      <c r="AZ39"/>
+      <c r="BA39"/>
+      <c r="BB39"/>
+      <c r="BC39"/>
+      <c r="BD39"/>
+      <c r="BE39"/>
+      <c r="BF39"/>
+      <c r="BG39"/>
+      <c r="BH39"/>
+      <c r="BI39"/>
+      <c r="BJ39"/>
+      <c r="BK39"/>
+      <c r="BL39"/>
+      <c r="BM39"/>
+      <c r="BN39"/>
+      <c r="BO39"/>
+      <c r="BP39"/>
+      <c r="BQ39"/>
+      <c r="BR39"/>
+      <c r="BS39"/>
+      <c r="BT39"/>
+      <c r="BU39"/>
+      <c r="BV39"/>
+      <c r="BW39"/>
+      <c r="BX39"/>
+      <c r="BY39"/>
+      <c r="BZ39"/>
+      <c r="CA39"/>
+      <c r="CB39"/>
+      <c r="CC39"/>
+      <c r="CD39"/>
+      <c r="CE39"/>
+      <c r="CF39"/>
+      <c r="CG39"/>
+      <c r="CH39"/>
+      <c r="CI39"/>
+      <c r="CJ39"/>
+      <c r="CK39"/>
+      <c r="CL39"/>
+      <c r="CM39"/>
+      <c r="CN39"/>
+      <c r="CO39"/>
+      <c r="CP39"/>
+      <c r="CQ39"/>
+      <c r="CR39"/>
+      <c r="CS39"/>
+      <c r="CT39"/>
+      <c r="CU39"/>
     </row>
     <row r="40" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2038,7 +2041,7 @@
     </row>
     <row r="41" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -2053,7 +2056,7 @@
     </row>
     <row r="42" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -2068,149 +2071,149 @@
     </row>
     <row r="43" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>26</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>0.5</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(E45:E49))</f>
+      <c r="E45" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(E46:E50))</f>
         <v>6</v>
       </c>
-      <c r="F44" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(F45:F49))</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-      <c r="Z44"/>
-      <c r="AA44"/>
-      <c r="AB44"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
-      <c r="AE44"/>
-      <c r="AF44"/>
-      <c r="AG44"/>
-      <c r="AH44"/>
-      <c r="AI44"/>
-      <c r="AJ44"/>
-      <c r="AK44"/>
-      <c r="AL44"/>
-      <c r="AM44"/>
-      <c r="AN44"/>
-      <c r="AO44"/>
-      <c r="AP44"/>
-      <c r="AQ44"/>
-      <c r="AR44"/>
-      <c r="AS44"/>
-      <c r="AT44"/>
-      <c r="AU44"/>
-      <c r="AV44"/>
-      <c r="AW44"/>
-      <c r="AX44"/>
-      <c r="AY44"/>
-      <c r="AZ44"/>
-      <c r="BA44"/>
-      <c r="BB44"/>
-      <c r="BC44"/>
-      <c r="BD44"/>
-      <c r="BE44"/>
-      <c r="BF44"/>
-      <c r="BG44"/>
-      <c r="BH44"/>
-      <c r="BI44"/>
-      <c r="BJ44"/>
-      <c r="BK44"/>
-      <c r="BL44"/>
-      <c r="BM44"/>
-      <c r="BN44"/>
-      <c r="BO44"/>
-      <c r="BP44"/>
-      <c r="BQ44"/>
-      <c r="BR44"/>
-      <c r="BS44"/>
-      <c r="BT44"/>
-      <c r="BU44"/>
-      <c r="BV44"/>
-      <c r="BW44"/>
-      <c r="BX44"/>
-      <c r="BY44"/>
-      <c r="BZ44"/>
-      <c r="CA44"/>
-      <c r="CB44"/>
-      <c r="CC44"/>
-      <c r="CD44"/>
-      <c r="CE44"/>
-      <c r="CF44"/>
-      <c r="CG44"/>
-      <c r="CH44"/>
-      <c r="CI44"/>
-      <c r="CJ44"/>
-      <c r="CK44"/>
-      <c r="CL44"/>
-      <c r="CM44"/>
-      <c r="CN44"/>
-      <c r="CO44"/>
-      <c r="CP44"/>
-      <c r="CQ44"/>
-      <c r="CR44"/>
-      <c r="CS44"/>
-      <c r="CT44"/>
-      <c r="CU44"/>
-    </row>
-    <row r="45" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45">
-        <v>0.5</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F45" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(F46:F50))</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+      <c r="AQ45"/>
+      <c r="AR45"/>
+      <c r="AS45"/>
+      <c r="AT45"/>
+      <c r="AU45"/>
+      <c r="AV45"/>
+      <c r="AW45"/>
+      <c r="AX45"/>
+      <c r="AY45"/>
+      <c r="AZ45"/>
+      <c r="BA45"/>
+      <c r="BB45"/>
+      <c r="BC45"/>
+      <c r="BD45"/>
+      <c r="BE45"/>
+      <c r="BF45"/>
+      <c r="BG45"/>
+      <c r="BH45"/>
+      <c r="BI45"/>
+      <c r="BJ45"/>
+      <c r="BK45"/>
+      <c r="BL45"/>
+      <c r="BM45"/>
+      <c r="BN45"/>
+      <c r="BO45"/>
+      <c r="BP45"/>
+      <c r="BQ45"/>
+      <c r="BR45"/>
+      <c r="BS45"/>
+      <c r="BT45"/>
+      <c r="BU45"/>
+      <c r="BV45"/>
+      <c r="BW45"/>
+      <c r="BX45"/>
+      <c r="BY45"/>
+      <c r="BZ45"/>
+      <c r="CA45"/>
+      <c r="CB45"/>
+      <c r="CC45"/>
+      <c r="CD45"/>
+      <c r="CE45"/>
+      <c r="CF45"/>
+      <c r="CG45"/>
+      <c r="CH45"/>
+      <c r="CI45"/>
+      <c r="CJ45"/>
+      <c r="CK45"/>
+      <c r="CL45"/>
+      <c r="CM45"/>
+      <c r="CN45"/>
+      <c r="CO45"/>
+      <c r="CP45"/>
+      <c r="CQ45"/>
+      <c r="CR45"/>
+      <c r="CS45"/>
+      <c r="CT45"/>
+      <c r="CU45"/>
     </row>
     <row r="46" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2222,7 +2225,7 @@
     </row>
     <row r="47" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2237,10 +2240,10 @@
     </row>
     <row r="48" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2252,59 +2255,74 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>26</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <v>0.5</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15">
         <v>2</v>
       </c>
-      <c r="F50" s="8">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>29</v>
+      <c r="F51" s="8">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Bachelorarbeit</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Anwendungsfälle</t>
+  </si>
+  <si>
+    <t>BusinessObjects Universe</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:XFC315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,11 +609,11 @@
       </c>
       <c r="F2" s="6">
         <f>SUM(F3,F4,F10,F25,F32,F39,F45,F51)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1726,11 +1729,11 @@
       </c>
       <c r="F32" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F33:F38))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -1848,26 +1851,26 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:99" x14ac:dyDescent="0.25">

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -129,9 +129,6 @@
     <t>Anforderungen</t>
   </si>
   <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>Anforderungsabdeckung</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>BusinessObjects Universe</t>
+  </si>
+  <si>
+    <t>Rahmenbedingungen</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:XFC315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,15 +605,15 @@
       </c>
       <c r="E2" s="6">
         <f>SUM(E3,E4,E10,E25,E32,E39,E45,E51)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="6">
         <f>SUM(F3,F4,F10,F25,F32,F39,F45,F51)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.45</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -725,7 +725,7 @@
     </row>
     <row r="4" spans="1:99 16383:16383" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2">
         <f>_xlfn.CEILING.PRECISE(SUM(E5:E9))</f>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="21" spans="1:99" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>1.5</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="25" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E26:E31))</f>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="30" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E32" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(E33:E38))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F33:F38))</f>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -1845,47 +1845,47 @@
     </row>
     <row r="34" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E34">
+        <v>0.2</v>
+      </c>
+      <c r="F34">
+        <v>0.2</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="36" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:99" x14ac:dyDescent="0.25">
@@ -1896,11 +1896,11 @@
         <v>1.5</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="38" spans="1:99" x14ac:dyDescent="0.25">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="F39" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F40:F44))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
@@ -2050,11 +2050,11 @@
         <v>5</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:99" x14ac:dyDescent="0.25">
@@ -2228,7 +2228,7 @@
     </row>
     <row r="47" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="48" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48">
         <v>2</v>

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -578,7 +578,7 @@
   <dimension ref="A1:XFC315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,11 +609,11 @@
       </c>
       <c r="F2" s="6">
         <f>SUM(F3,F4,F10,F25,F32,F39,F45,F51)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.5423728813559322</v>
+        <v>0.59322033898305082</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1928,11 +1928,11 @@
       </c>
       <c r="F39" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F40:F44))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>0.5</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
@@ -2065,11 +2065,11 @@
         <v>5</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.55999999999999994</v>
       </c>
     </row>
     <row r="43" spans="1:99" x14ac:dyDescent="0.25">

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,11 +609,11 @@
       </c>
       <c r="F2" s="6">
         <f>SUM(F3,F4,F10,F25,F32,F39,F45,F51)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.59322033898305082</v>
+        <v>0.64406779661016944</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1928,11 +1928,11 @@
       </c>
       <c r="F39" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F40:F44))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
@@ -2065,11 +2065,11 @@
         <v>5</v>
       </c>
       <c r="F42">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="0"/>
-        <v>0.55999999999999994</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:99" x14ac:dyDescent="0.25">

--- a/Seiten Bachelorarbeit.xlsx
+++ b/Seiten Bachelorarbeit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Bachelorarbeit</t>
   </si>
@@ -151,6 +151,36 @@
   </si>
   <si>
     <t>Rahmenbedingungen</t>
+  </si>
+  <si>
+    <t>Überblick</t>
+  </si>
+  <si>
+    <t>Grundlegende Architektur und Funktionsweise</t>
+  </si>
+  <si>
+    <t>Statisches Modell</t>
+  </si>
+  <si>
+    <t>Dynamisches Modell</t>
+  </si>
+  <si>
+    <t>Orchestrierung der WebServices</t>
+  </si>
+  <si>
+    <t>Zielstruktur in Xcelsius</t>
+  </si>
+  <si>
+    <t>Flex Sandbox</t>
+  </si>
+  <si>
+    <t>Asynchroner Programmablauf</t>
+  </si>
+  <si>
+    <t>WebServiceAblauf</t>
+  </si>
+  <si>
+    <t>Xcelsius Binding</t>
   </si>
 </sst>
 </file>
@@ -575,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC315"/>
+  <dimension ref="A1:XFC327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,16 +634,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="6">
-        <f>SUM(E3,E4,E10,E25,E32,E39,E45,E51)</f>
+        <f>SUM(E3,E4,E10,E25,E32,E39,E57,E63)</f>
         <v>59</v>
       </c>
       <c r="F2" s="6">
-        <f>SUM(F3,F4,F10,F25,F32,F39,F45,F51)</f>
-        <v>38</v>
+        <f>SUM(F3,F4,F10,F25,F32,F39,F57,F63)</f>
+        <v>40</v>
       </c>
       <c r="G2" s="7">
         <f>F2/E2</f>
-        <v>0.64406779661016944</v>
+        <v>0.67796610169491522</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -733,11 +763,11 @@
       </c>
       <c r="F4" s="10">
         <f>_xlfn.CEILING.PRECISE(SUM(F5:F9))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G51" si="0">F4/E4</f>
-        <v>1</v>
+        <f t="shared" ref="G4:G63" si="0">F4/E4</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -833,7 +863,7 @@
       <c r="CU4"/>
       <c r="XFC4" s="4">
         <f>SUM(G4)</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
@@ -859,11 +889,11 @@
         <v>1.5</v>
       </c>
       <c r="F6">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
@@ -874,11 +904,11 @@
         <v>1.5</v>
       </c>
       <c r="F7">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:99 16383:16383" x14ac:dyDescent="0.25">
@@ -1346,11 +1376,11 @@
       </c>
       <c r="F19" s="5">
         <f>SUM(F20:F23)</f>
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>1.1400000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1453,11 +1483,11 @@
         <v>1.5</v>
       </c>
       <c r="F20">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:99" x14ac:dyDescent="0.25">
@@ -1667,11 +1697,11 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29" spans="1:99" x14ac:dyDescent="0.25">
@@ -1729,11 +1759,11 @@
       </c>
       <c r="F32" s="5">
         <f>_xlfn.CEILING.PRECISE(SUM(F33:F38))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -1881,11 +1911,11 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:99" x14ac:dyDescent="0.25">
@@ -1896,11 +1926,11 @@
         <v>1.5</v>
       </c>
       <c r="F37">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:99" x14ac:dyDescent="0.25">
@@ -1923,16 +1953,16 @@
         <v>19</v>
       </c>
       <c r="E39" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(E40:E44))</f>
+        <f>_xlfn.CEILING.PRECISE(SUM(E40:E56))</f>
         <v>16</v>
       </c>
       <c r="F39" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(F40:F44))</f>
-        <v>11</v>
+        <f>_xlfn.CEILING.PRECISE(SUM(F40,F41,F46,F51,F56))</f>
+        <v>13</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <v>0.8125</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
@@ -2050,282 +2080,378 @@
         <v>5</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <f>SUM(F42:F45)</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.98000000000000009</v>
       </c>
     </row>
     <row r="42" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
+      <c r="C42" t="s">
+        <v>45</v>
       </c>
       <c r="F42">
-        <v>5.5</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="43" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
+      <c r="C43" t="s">
+        <v>46</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="44" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44">
-        <v>0.5</v>
+      <c r="C44" t="s">
+        <v>47</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(E46:E50))</f>
-        <v>6</v>
-      </c>
-      <c r="F45" s="5">
-        <f>_xlfn.CEILING.PRECISE(SUM(F46:F50))</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
-      <c r="Z45"/>
-      <c r="AA45"/>
-      <c r="AB45"/>
-      <c r="AC45"/>
-      <c r="AD45"/>
-      <c r="AE45"/>
-      <c r="AF45"/>
-      <c r="AG45"/>
-      <c r="AH45"/>
-      <c r="AI45"/>
-      <c r="AJ45"/>
-      <c r="AK45"/>
-      <c r="AL45"/>
-      <c r="AM45"/>
-      <c r="AN45"/>
-      <c r="AO45"/>
-      <c r="AP45"/>
-      <c r="AQ45"/>
-      <c r="AR45"/>
-      <c r="AS45"/>
-      <c r="AT45"/>
-      <c r="AU45"/>
-      <c r="AV45"/>
-      <c r="AW45"/>
-      <c r="AX45"/>
-      <c r="AY45"/>
-      <c r="AZ45"/>
-      <c r="BA45"/>
-      <c r="BB45"/>
-      <c r="BC45"/>
-      <c r="BD45"/>
-      <c r="BE45"/>
-      <c r="BF45"/>
-      <c r="BG45"/>
-      <c r="BH45"/>
-      <c r="BI45"/>
-      <c r="BJ45"/>
-      <c r="BK45"/>
-      <c r="BL45"/>
-      <c r="BM45"/>
-      <c r="BN45"/>
-      <c r="BO45"/>
-      <c r="BP45"/>
-      <c r="BQ45"/>
-      <c r="BR45"/>
-      <c r="BS45"/>
-      <c r="BT45"/>
-      <c r="BU45"/>
-      <c r="BV45"/>
-      <c r="BW45"/>
-      <c r="BX45"/>
-      <c r="BY45"/>
-      <c r="BZ45"/>
-      <c r="CA45"/>
-      <c r="CB45"/>
-      <c r="CC45"/>
-      <c r="CD45"/>
-      <c r="CE45"/>
-      <c r="CF45"/>
-      <c r="CG45"/>
-      <c r="CH45"/>
-      <c r="CI45"/>
-      <c r="CJ45"/>
-      <c r="CK45"/>
-      <c r="CL45"/>
-      <c r="CM45"/>
-      <c r="CN45"/>
-      <c r="CO45"/>
-      <c r="CP45"/>
-      <c r="CQ45"/>
-      <c r="CR45"/>
-      <c r="CS45"/>
-      <c r="CT45"/>
-      <c r="CU45"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="46" spans="1:99" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <f>SUM(F47:F50)</f>
+        <v>5.3</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <f>SUM(F52:F55)</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:99" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(E58:E62))</f>
+        <v>6</v>
+      </c>
+      <c r="F57" s="5">
+        <f>_xlfn.CEILING.PRECISE(SUM(F58:F62))</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57"/>
+      <c r="AQ57"/>
+      <c r="AR57"/>
+      <c r="AS57"/>
+      <c r="AT57"/>
+      <c r="AU57"/>
+      <c r="AV57"/>
+      <c r="AW57"/>
+      <c r="AX57"/>
+      <c r="AY57"/>
+      <c r="AZ57"/>
+      <c r="BA57"/>
+      <c r="BB57"/>
+      <c r="BC57"/>
+      <c r="BD57"/>
+      <c r="BE57"/>
+      <c r="BF57"/>
+      <c r="BG57"/>
+      <c r="BH57"/>
+      <c r="BI57"/>
+      <c r="BJ57"/>
+      <c r="BK57"/>
+      <c r="BL57"/>
+      <c r="BM57"/>
+      <c r="BN57"/>
+      <c r="BO57"/>
+      <c r="BP57"/>
+      <c r="BQ57"/>
+      <c r="BR57"/>
+      <c r="BS57"/>
+      <c r="BT57"/>
+      <c r="BU57"/>
+      <c r="BV57"/>
+      <c r="BW57"/>
+      <c r="BX57"/>
+      <c r="BY57"/>
+      <c r="BZ57"/>
+      <c r="CA57"/>
+      <c r="CB57"/>
+      <c r="CC57"/>
+      <c r="CD57"/>
+      <c r="CE57"/>
+      <c r="CF57"/>
+      <c r="CG57"/>
+      <c r="CH57"/>
+      <c r="CI57"/>
+      <c r="CJ57"/>
+      <c r="CK57"/>
+      <c r="CL57"/>
+      <c r="CM57"/>
+      <c r="CN57"/>
+      <c r="CO57"/>
+      <c r="CP57"/>
+      <c r="CQ57"/>
+      <c r="CR57"/>
+      <c r="CS57"/>
+      <c r="CT57"/>
+      <c r="CU57"/>
+    </row>
+    <row r="58" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>25</v>
       </c>
-      <c r="E46">
+      <c r="E58">
         <v>0.5</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>37</v>
       </c>
-      <c r="E47">
+      <c r="E59">
         <v>2</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:99" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>38</v>
       </c>
-      <c r="E48">
+      <c r="E60">
         <v>2</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>24</v>
       </c>
-      <c r="E49">
+      <c r="E61">
         <v>1</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>26</v>
       </c>
-      <c r="E50">
+      <c r="E62">
         <v>0.5</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:99" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15">
         <v>2</v>
       </c>
-      <c r="F51" s="8">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="F63" s="8">
+        <v>0</v>
+      </c>
+      <c r="G63" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>33</v>
       </c>
     </row>
